--- a/bin/res.xlsx
+++ b/bin/res.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>People</t>
+  </si>
   <si>
     <t>Hours Worked</t>
   </si>
@@ -117,7 +120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,9 +150,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -157,6 +157,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +499,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -510,306 +513,307 @@
     <col customWidth="1" max="7" min="7" width="22.6640625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="38" spans="1:8">
-      <c s="6" r="A1" t="n"/>
-      <c s="6" r="B1" t="n"/>
-      <c s="6" r="C1" t="n"/>
-      <c s="6" r="D1" t="n"/>
-      <c s="6" r="E1" t="n"/>
-      <c s="6" r="F1" t="n"/>
-      <c s="6" r="G1" t="n"/>
-    </row>
-    <row customHeight="1" r="2" ht="76" spans="1:8">
-      <c s="7" r="A2" t="n"/>
-      <c s="8" r="B2" t="s">
+    <row customHeight="1" ht="38" r="1" spans="1:8">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="76" r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c s="8" r="C2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c s="8" r="D2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c s="8" r="E2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c s="8" r="F2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c s="5" r="G2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row customHeight="1" r="3" ht="36" spans="1:8">
-      <c s="9" r="A3" t="n"/>
-      <c s="9" r="B3" t="n"/>
-      <c s="9" r="C3" t="n"/>
-      <c s="9" r="D3" t="n"/>
-      <c s="9" r="E3" t="n"/>
-      <c s="9" r="F3" t="n"/>
-      <c s="4" r="G3" t="n"/>
-    </row>
-    <row customHeight="1" r="4" ht="38" spans="1:8">
-      <c s="2" r="A4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c s="3" r="B4" t="n">
+    </row>
+    <row customHeight="1" ht="37" r="3" spans="1:8">
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="38" r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>13</v>
       </c>
-      <c s="4" r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>500</v>
       </c>
-      <c s="4" r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>8.25</v>
       </c>
-      <c s="11" r="E4">
+      <c r="E4" s="10">
         <f>C4</f>
         <v/>
       </c>
-      <c s="4" r="F4">
+      <c r="F4" s="4">
         <f>C4*C14</f>
         <v/>
       </c>
-      <c s="4" r="G4">
+      <c r="G4" s="4">
         <f>E4+F4</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="5" ht="38" spans="1:8">
-      <c s="2" r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c s="3" r="B5" t="n">
+    <row customHeight="1" ht="38" r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>15</v>
       </c>
-      <c s="4" r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>40</v>
       </c>
-      <c s="4" r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c s="4" r="E5">
+      <c r="E5" s="4">
         <f>B5*D5</f>
         <v/>
       </c>
-      <c s="4" r="F5">
+      <c r="F5" s="4">
         <f>C5*C14</f>
         <v/>
       </c>
-      <c s="4" r="G5">
+      <c r="G5" s="4">
         <f>E5+F5</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="6" ht="38" spans="1:8">
-      <c s="2" r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c s="3" r="B6" t="n">
+    <row customHeight="1" ht="38" r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>20</v>
       </c>
-      <c s="4" r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>460</v>
       </c>
-      <c s="4" r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>10</v>
       </c>
-      <c s="4" r="E6">
+      <c r="E6" s="4">
         <f>B6*D6</f>
         <v/>
       </c>
-      <c s="11" r="F6">
+      <c r="F6" s="10">
         <f>C6*C16</f>
         <v/>
       </c>
-      <c s="4" r="G6">
+      <c r="G6" s="4">
         <f>E6+F6</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="7" ht="38" spans="1:8">
-      <c s="2" r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c s="3" r="B7" t="n">
+    <row customHeight="1" ht="38" r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>23</v>
       </c>
-      <c s="4" r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>670</v>
       </c>
-      <c s="4" r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>9.25</v>
       </c>
-      <c s="4" r="E7">
+      <c r="E7" s="4">
         <f>B7*D7</f>
         <v/>
       </c>
-      <c s="11" r="F7">
+      <c r="F7" s="10">
         <f>C7*C16</f>
         <v/>
       </c>
-      <c s="4" r="G7">
+      <c r="G7" s="4">
         <f>E7+F7</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="8" ht="38" spans="1:8">
-      <c s="2" r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c s="3" r="B8" t="n">
+    <row customHeight="1" ht="38" r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>42</v>
       </c>
-      <c s="4" r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>780</v>
       </c>
-      <c s="4" r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>11.75</v>
       </c>
-      <c s="4" r="E8">
+      <c r="E8" s="4">
         <f>B8*D8</f>
         <v/>
       </c>
-      <c s="11" r="F8">
+      <c r="F8" s="10">
         <f>C8*C18</f>
         <v/>
       </c>
-      <c s="4" r="G8">
+      <c r="G8" s="4">
         <f>E8+F8</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="9" ht="38" spans="1:8">
-      <c s="2" r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c s="3" r="B9" t="n">
+    <row customHeight="1" ht="38" r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>44</v>
       </c>
-      <c s="4" r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>1200</v>
       </c>
-      <c s="4" r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>10.75</v>
       </c>
-      <c s="4" r="E9">
+      <c r="E9" s="4">
         <f>B9*D9</f>
         <v/>
       </c>
-      <c s="11" r="F9">
+      <c r="F9" s="10">
         <f>C9*C18</f>
         <v/>
       </c>
-      <c s="4" r="G9">
+      <c r="G9" s="4">
         <f>E9+F9</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="10" ht="38" spans="1:8">
-      <c s="2" r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c s="3" r="B10" t="n">
+    <row customHeight="1" ht="38" r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>48</v>
       </c>
-      <c s="4" r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>1250</v>
       </c>
-      <c s="4" r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>9.85</v>
       </c>
-      <c s="4" r="E10">
+      <c r="E10" s="4">
         <f>B10*D10</f>
         <v/>
       </c>
-      <c s="11" r="F10">
+      <c r="F10" s="10">
         <f>C10*C20</f>
         <v/>
       </c>
-      <c s="4" r="G10">
+      <c r="G10" s="4">
         <f>E10+F10</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="11" ht="36" spans="1:8">
-      <c s="5" r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c s="4" r="B11">
+    <row customHeight="1" ht="37" r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
         <f>MAX(B4:B10)</f>
         <v/>
       </c>
-      <c s="4" r="C11">
+      <c r="C11" s="4">
         <f>MAX(C4:C10)</f>
         <v/>
       </c>
-      <c s="4" r="D11">
+      <c r="D11" s="4">
         <f>MAX(D4:D10)</f>
         <v/>
       </c>
-      <c s="4" r="E11">
+      <c r="E11" s="4">
         <f>MAX(E4:E10)</f>
         <v/>
       </c>
-      <c s="11" r="F11">
+      <c r="F11" s="10">
         <f>C11*C20</f>
         <v/>
       </c>
-      <c s="4" r="G11">
+      <c r="G11" s="4">
         <f>E11+F11</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="12" ht="36" spans="1:8">
-      <c s="5" r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c s="12" r="B12">
+    <row customHeight="1" ht="37" r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
         <f>AVERAGE(B3:B9)</f>
         <v/>
       </c>
-      <c s="4" r="C12">
+      <c r="C12" s="4">
         <f>AVERAGE(C4:C10)</f>
         <v/>
       </c>
-      <c s="4" r="D12">
+      <c r="D12" s="4">
         <f>AVERAGE(D4:D10)</f>
         <v/>
       </c>
-      <c s="12" r="E12">
+      <c r="E12" s="12">
         <f>AVERAGE(E4:E10)</f>
         <v/>
       </c>
-      <c s="12" r="F12">
+      <c r="F12" s="12">
         <f>AVERAGE(F4:F10)</f>
         <v/>
       </c>
-      <c s="4" r="G12">
+      <c r="G12" s="4">
         <f>E12+F12</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" r="13" ht="36" spans="1:8">
-      <c s="5" r="A13" t="n"/>
-      <c s="4" r="B13" t="n"/>
-      <c s="4" r="C13" t="n"/>
-      <c s="4" r="D13" t="n"/>
-      <c s="1" r="E13" t="n"/>
-      <c s="1" r="F13" t="n"/>
-      <c s="1" r="G13" t="n"/>
-    </row>
-    <row customHeight="1" r="14" ht="36" spans="1:8">
-      <c s="5" r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c s="4" r="B14" t="n"/>
-      <c s="4" r="C14" t="n">
+    <row customHeight="1" ht="37" r="13" spans="1:8">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="37" r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c s="4" r="D14" t="n"/>
-      <c s="1" r="E14" t="n"/>
-      <c s="1" r="F14" t="n"/>
-      <c s="1" r="G14" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
